--- a/results/2015年第1季.xlsx
+++ b/results/2015年第1季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,6 +739,7584 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>137.5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>367,866</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>307,420</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15,597</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>18,492</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>22,766</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>86,852</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>22,114</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>440,356</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,357,780</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3,146,538</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6,398,169</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2,134,467</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,547,121</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1,368,808</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2,434,711</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-523,199</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-6,920</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1,815,823</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>6,619,549</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>8,133,258</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>35,538,493</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>51.4</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6,795,306</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1,064,345</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>593,690</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>273,117</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-126,358</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-240,237</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1,720,905</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-322,186</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>18,165,000</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>14,822,184</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>42,144,156</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>244</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8,341,477</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,814,891</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,050,876</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>865,596</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>145,519</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-432,109</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2,569,750</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>102,367</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>6,496,890</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1,648,155</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>26,135,746</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>242,438</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>134,451</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92,696</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>80,838</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>139,636</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1,786</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-45,000</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>139,536</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>162,019</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>10,568</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1,105,465</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>156</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15,007,596</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,631,158</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,000,512</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>780,775</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2,419,699</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>939,150</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>759,127</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2,095,238</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>22,354,404</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6,198,798</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>43,513,501</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-22,629</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-23,951</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-30,057</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>16,997</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>902,325</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-52,301</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>69,381</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-1.02</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-0.99</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>10,496</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2,813,324</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2,806,832</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,062,897</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>774,469</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>618,471</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>751,150</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-274,251</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>-252,997</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>252,043</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>6,025,847</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>11,459,122</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>22,688,664</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>21</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1,032,059</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>114,485</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-6,114</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-28,703</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-91,629</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-33,595</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>177,089</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>-112,095</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2,043,169</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-2.31</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>-0.66</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>805,115</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>3,267,489</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>-0.40</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4,317,278</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,025,781</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>734,762</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>574,248</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1,802,626</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>-12,008</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-316,781</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1,086,503</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>15,549,190</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>12,601,180</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>40,014,975</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4,008,464</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>502,872</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>216,629</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>178,703</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-14,934</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-188,867</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>146,875</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-207,345</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>4,143,262</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>3,028,049</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>9,361,175</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7,398,603</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>170,152</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-139,755</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>182,950</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>144,040</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>-99,531</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-1,085,057</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-18,296</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>22,600,616</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>16,705,747</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>76,167,075</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>287,025</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>73,032</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>8,221</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>13,701</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>36,529</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>-365</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-27,484</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>35,807</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>575,421</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>549,486</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,424,601</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>201</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>13,372,450</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4,759,125</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>191,465</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>183,043</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2,144,821</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-570,904</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-232,519</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1,572,709</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>18,589,080</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>8,424,068</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>23,660,125</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>51</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>465,372</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>64,374</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-24,186</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-23,959</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-9,362</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-34,780</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>52,596</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-40,606</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1,683,908</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>-2.11</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1,433,619</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2,804,297</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>-0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>26.95</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,516,016</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>485,832</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>355,938</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>306,408</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>855,160</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-286,500</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-147,422</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>602,208</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4,429,670</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>9,103,693</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>13,967,276</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,847,773</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>798,588</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>170,164</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>64,639</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-184,909</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-108,778</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>379,227</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>-239,794</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>5,924,078</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>674,660</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>13,027,328</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>480,452</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>109,950</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>-693</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6,585</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-1,104</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-16,947</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>295,698</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>107,065</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>786,357</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1,383,032</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>312,927</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>164,667</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>129,736</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>530,891</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-341,029</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-110,521</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>194,059</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2,631,494</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>6,524,646</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>8,740,282</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>317,523</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>34,261</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-26,179</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-33,796</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>114,862</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-54,639</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>34,344</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>59,496</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>577,650</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>-2.65</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>-1.60</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>685,613</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1,965,976</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>62,983</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17,428</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5,399</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-19,456</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>131,580</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>318,349</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>810,860</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>70,446</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>46,031</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-10,262</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-9,773</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-40,298</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-8,502</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>13,136</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-48,303</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>114,243</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-2.24</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-1.74</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>138,489</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>552,523</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1,016,444</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>336,702</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>276,152</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>236,457</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>324,997</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-158,346</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>-28,050</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>167,942</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>665,596</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1,151,466</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>3,131,467</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>113.5</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>931,288</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>431,812</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97,031</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>95,597</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-151,475</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-168,664</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-3,054</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-341,427</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2,486,337</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2,309,042</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>6,303,495</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>38.55</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5,030,057</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>401,936</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>61,285</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>74,391</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-39,794</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-17,163</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-12,147</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-56,444</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>3,561,947</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3,839,825</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>7,901,116</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>54.4</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5,456,823</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>249,540</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-118,962</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>27,098</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>891,097</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-49,308</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-169,478</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>855,310</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>12,529,909</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>4,605,179</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>21,063,206</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-41,672</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-2,963</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>74,687</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>16,537</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>22,223</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>754,462</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5,803,320</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>226,607</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88,552</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>129,179</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2,105,922</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-100,040</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-2,194,827</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2,009,892</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>12,543,705</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>11,035,507</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>26,430,968</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>96.8</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>976,415</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>270,248</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>131,797</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>100,539</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>30,229</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-113,842</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-22,696</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>16,557</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>620,339</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>917,610</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2,783,707</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>652,422</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>163,333</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>55,359</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>42,132</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-3,967</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-14,033</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>330,105</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>-11,865</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1,290,972</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>217,295</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2,592,700</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8,676,277</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,267,532</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>53,980</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-1,633,512</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>18,888</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>885,046</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>-1,814,179</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>24,862,284</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>12,633,258</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>41,030,501</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7.89</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>156,067</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>-7,685</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-16,829</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-18,412</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>813</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-6,872</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>-136</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>-19</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>260,284</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>-0.64</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>374,315</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,849,526</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>-0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>26</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>80,803,702</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9,865,002</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>6,411,779</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4,794,629</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>10,621,045</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-5,466,067</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-3,068,900</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>4,097,453</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>343,878,692</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>455,895,764</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>682,475,444</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1,818,319</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>-5,650</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-61,198</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-112,728</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>29,275</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-148,346</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>224,964</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-119,081</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>9,850,708</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-2.72</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-0.50</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>9,996,302</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>13,941,088</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>949,924</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>-66,180</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-82,718</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-119,949</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-20,788</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-28,255</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>71,192</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>-49,043</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1,967,485</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>-3.03</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>-1.98</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>993,335</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>5,831,513</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>-0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>403,394</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>244,743</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>66,698</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>56,417</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>64,998</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-13,310</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>50,663</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>702,626</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>679,785</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1,653,020</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>46.75</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>49,439</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14,008</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-7,168</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-344,923</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-188</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>348,619</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>-344,923</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>3,648,402</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>-0.30</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>28,301</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>6,008,630</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>204,274</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>27,202</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-378</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-1,099</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>47,030</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>5,059</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>45,520</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>476,221</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>423,266</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1,240,760</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>357,515</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>58,020</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>12,181</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>12,263</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>31,943</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2,399</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>-67,150</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>28,518</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>364,811</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>277,800</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,706,043</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>625,961</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>-36,107</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-158,744</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-155,222</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-37,368</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>10,998</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>74,537</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-115,600</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1,823,628</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-6.19</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-3.39</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>1,119,412</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>4,243,500</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-1.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>422,502</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>68,158</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>9,544</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2,699</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>11,847</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-74,362</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>87,621</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-67,795</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1,336,964</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>781,476</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2,424,008</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4,742,993</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1,261,124</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>-305,420</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-329,252</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>-349,116</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-274,211</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>292,629</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>-836,291</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>27,874,886</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>-3.03</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>-0.67</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>14,477,008</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>38,564,147</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>-0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1,016,187</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>298,259</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-75,525</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-76,615</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-192,442</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-146,181</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>143,146</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-271,343</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>7,454,393</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>-1.24</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>-0.26</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>4,978,894</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>13,640,385</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>104,940,238</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>34,537,382</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>6,277,894</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6,616,277</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>13,773,676</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>-18,368,995</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2,931,433</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>8,683,189</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>251,612,040</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>160,597,290</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>407,742,178</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2,920,124</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>-80,528</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-583,035</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-751,010</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>26,727</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>127,674</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-103,551</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>-3,919</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>13,104,425</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>-3.40</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>-1.96</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>20,443,037</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>34,781,924</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>-0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3,490,453</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>84,649</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-405,789</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-451,909</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>-89,472</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>90,544</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-649,254</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>-137,509</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>10,550,995</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-1.63</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>-1.03</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>21,034,388</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>37,985,568</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>100,157,867</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>17,744,057</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>11,216,791</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8,649,289</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>25,220,066</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-2,639,879</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-51,910,415</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>18,610,965</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>188,044,796</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>222,590,627</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>424,466,859</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>12,027,943</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5,673,224</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>4,767,500</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6,299,243</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>5,310,628</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-920,222</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-4,177,090</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>4,346,222</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>57,748,816</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>50,914,799</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>106,120,469</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1,007,130</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>254,844</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>164,694</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>152,235</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>59,187</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>25,137</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-89,602</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>57,057</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>9,581,681</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>3,004,261</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>11,451,068</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1,014,122,421</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>72,423,358</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>38,602,603</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>31,259,557</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>109,231,450</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-13,008,362</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>-43,672,480</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>90,292,398</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1,179,517,461</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>341,208,380</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2,180,989,179</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>23.55</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2,646,983</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>170,996</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>10,340</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2,627</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-344,942</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>448,482</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>122,514</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>-361,587</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>10,452,400</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1,448,894</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>19,523,475</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>11,012,342</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5,651,231</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>748,774</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>200,823</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-3,365,466</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-193,490</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>-1,521,641</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>-3,763,289</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>66,119,721</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>46,984,424</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>105,873,089</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>67.3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2,704,131</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1,279,920</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>885,000</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1,675,475</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>7,491</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>-37,846</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>-846,490</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-4,740</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>15,480,736</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>3,055,621</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>56,375,899</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>189,991</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>27,690</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>12,847</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>17,739</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>3,519</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-1,435</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2,124</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>174,190</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>416,578</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,446,425</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9,119,151</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1,949,195</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>688,234</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>535,694</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1,334,542</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>591,801</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>-436,010</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>444,949</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>24,457,399</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>14,280,447</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>46,771,531</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>28,993,405</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8,438,789</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>4,618,898</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3,278,895</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>5,796,351</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-4,055,228</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-27,105</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>3,062,649</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>79,667,392</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>108,593,829</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>170,767,565</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>98</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>56,472,807</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>19,776,926</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>11,784,950</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>10,567,793</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>11,785,223</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-4,452,093</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>-58,305</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>6,253,376</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>72,135,173</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>298,417,054</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>452,695,974</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5,857,024</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>805,713</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>142,160</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>66,963</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>641,910</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-2,533,470</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2,650,991</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>623,993</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>9,178,807</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>3,191,345</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>18,863,914</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2,215,206</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>747,217</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>538,265</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>521,790</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>610,290</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>46,742</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>-213,349</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>610,290</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>12,230,010</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>20,174,092</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>67.7</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>155,034,556</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3,594,313</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1,243,532</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1,122,927</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>29,025,705</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-5,857,411</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-24,919,270</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>27,481,917</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>200,469,267</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>141,662,167</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>442,003,135</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,414,903</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>433,211</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>72,040</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>106,057</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>-9,947</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-29,604</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-69,609</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>-80,507</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>4,694,451</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4,304,062</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>10,194,811</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>101</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1,294,448</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>744,933</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>70,389</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>-21,146</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>231,976</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>-68,524</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-102,177</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>212,746</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>7,229,531</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>-0.73</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1,941,645</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>15,917,607</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>38.85</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5,612,549</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,304,869</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>481,479</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>430,698</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>670,045</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-1,076,333</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>503,932</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>-342,863</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>16,493,845</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>17,228,283</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>34,784,443</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>283</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>9,042,254</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1,174,669</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>329,541</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1,025,315</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-785,437</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>595,417</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-852,037</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>10,557,211</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,995,811</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>38,177,135</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>40.05</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1,158,958</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>400,551</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>260,578</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>218,895</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>291,537</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-295,308</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-40,066</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>-16,163</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>4,019,058</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>5,111,315</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>8,955,107</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>35,304,000</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3,150,313</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1,823,194</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1,856,562</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>5,422,415</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-4,268,643</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>188,453</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>4,499,606</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>124,002,026</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>101,882,577</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>191,008,513</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1,176,793</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>126,691</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>55,992</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>19,627</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>287,657</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-1,538,808</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1,313,237</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>-1,235,759</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>23,347,541</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>30,038,638</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>32,529,345</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>53,529,552</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>12,846,493</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>3,872,118</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4,626,504</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>10,646,141</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-6,589,035</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>6,589,125</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>4,605,215</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>241,314,496</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>140,828,088</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>510,154,056</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>296,976</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>-2,208</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-19,490</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-16,421</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-136,465</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-21,321</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>61,893</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-159,191</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,704,149</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>-0.52</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>-0.30</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,766,296</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,853,009</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>483,441</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>145,665</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>56,305</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>41,902</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>40,566</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-43,137</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-4,696</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>27,230</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>281,977</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>596,106</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>1,708,129</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>37,649,644</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>9,155,109</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>4,098,672</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3,912,472</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>16,869,811</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-16,497,962</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>8,154,675</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>1,977,077</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>91,802,574</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>165,956,301</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>321,064,806</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>45.85</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,218,803</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>393,947</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>195,580</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>155,993</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>61,579</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-252,802</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>107,694</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>-175,134</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>5,386,758</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,517,105</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>10,477,243</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>421,806</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>71,955</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>5,758</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1,625</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>37,140</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-38,567</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-7,842</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>22,654</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>301,119</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1,307,291</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>4,173,697</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4,073,532</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1,157,575</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>630,935</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>599,422</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2,146,729</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-1,688,230</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-1,292,380</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>205,951</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>15,897,407</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>24,953,081</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>39,387,891</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>70,236,826</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2,711,069</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>986,196</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1,210,400</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>5,093,487</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-395,869</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-705,838</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>4,675,539</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>87,768,618</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>6,857,336</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>133,555,971</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>31.95</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>6,041,991</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>919,973</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>171,225</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>122,145</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>-297,926</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>36,704</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>9,777</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>-386,569</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>4,784,362</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3,726,440</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>9,239,610</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>54.6</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>9,027,373</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>846,856</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>308,403</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>290,249</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>949,016</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>474,926</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-904,094</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>831,729</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>14,799,855</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>1,885,550</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>25,509,885</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>5,660,889</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>323,786</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>111,027</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>88,227</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-438,065</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-122,439</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>408,185</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>-561,487</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>4,777,505</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>341,999</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>6,737,708</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>27.65</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>930,937</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>377,259</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>149,261</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>119,168</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>164,154</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-104,699</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>-48,521</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>59,389</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>2,822,906</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>6,455,324</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>12,053,728</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>740,523</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>249,150</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>42,093</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>222,496</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>-645,188</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>767,704</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>-204,226</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>-737,213</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>5,007,803</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>-3.16</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>6,787,174</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>10,106,442</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>329</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,734,080</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>657,446</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>391,173</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>301,200</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>48,316</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-186,515</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-13,866</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>-114,783</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>3,496,494</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>3,300,792</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>7,542,103</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>60,945</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>8,628</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-48,269</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>-79,840</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>-205,473</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-470,061</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>639,740</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>-739,509</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>1,756,922</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>-3.43</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>-1.99</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>1,726,535</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>4,095,825</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>-0.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>135</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>12,318,017</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2,454,737</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1,074,204</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>905,693</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>674,252</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-566,777</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>330,167</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>118,589</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>12,941,942</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>11,559,568</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>25,856,410</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>308.5</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>14,586,968</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3,300,307</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1,341,279</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>957,230</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>-452,444</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>137,712</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>795,544</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>-878,761</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>26,006,718</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>7,564,524</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>45,990,188</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>11,716,314</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3,057,061</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>986,683</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>821,563</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>-307,772</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-210,281</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-1,253,467</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>-700,946</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>26,389,967</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>14,476,533</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>79,114,780</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>792,923</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>102,503</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>16,360</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>19,917</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>-145,023</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-5,547</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>176,037</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>-150,092</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2,029,607</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>999,715</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>4,779,592</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>39.85</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4,763,468</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1,058,819</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>437,975</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>388,126</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>-35,062</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-97,992</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>377,659</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>-127,138</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>12,498,074</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>5,799,428</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>34,364,367</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>198,112,443</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>8,559,448</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>3,221,663</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2,021,761</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>657,798</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-283,020</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-6,518,268</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>-627,586</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>229,763,757</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>24,286,366</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>338,618,898</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>323</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>111,889,517</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>15,331,207</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>5,134,836</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3,696,992</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>-4,452,279</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-340,312</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>130,681</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>-4,583,421</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>158,594,359</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>9,332,735</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>333,873,224</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>32,428,096</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3,467,636</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>450,904</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>672,709</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>-1,278,791</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-244,165</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>3,201,673</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>-1,681,647</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>73,014,254</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>19,464,865</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>104,576,742</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>244</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>8,784,667</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3,590,779</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1,351,158</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,206,212</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1,385,854</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-816,625</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>74,133</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>971,136</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>8,885,609</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>9,129,093</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>32,325,047</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>12,906,752</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2,490,282</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>349,892</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>424,271</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>-505,436</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>-501,338</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>16,190</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>-549,145</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>10,711,437</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>4,153,100</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>33,636,135</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>134,284</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>35,441</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>-9,426</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>-8,732</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>-16,740</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-26,920</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>-16,983</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>332,319</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>-1.18</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>-0.80</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>4,679</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,069,499</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>-0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>36.15</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2,105,628</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>184,075</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>71,273</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>56,558</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-38,885</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>17,827</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>-39,625</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3,027,075</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>378,389</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>4,941,607</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>290,972</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>265,225</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>45,621</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>23,225</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>6,930</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-14,025</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>5,432</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>275,220</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>39,739</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>2,054,513</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
